--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Hmmr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +534,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H2">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I2">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J2">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.6499365966007</v>
+        <v>1.375678666666666</v>
       </c>
       <c r="N2">
-        <v>25.6499365966007</v>
+        <v>4.127035999999999</v>
       </c>
       <c r="O2">
-        <v>0.7575975743381658</v>
+        <v>0.03616159583349148</v>
       </c>
       <c r="P2">
-        <v>0.7575975743381658</v>
+        <v>0.03616159583349148</v>
       </c>
       <c r="Q2">
-        <v>1236.50065760281</v>
+        <v>66.38357674332354</v>
       </c>
       <c r="R2">
-        <v>1236.50065760281</v>
+        <v>597.452190689912</v>
       </c>
       <c r="S2">
-        <v>0.7079761824556957</v>
+        <v>0.03377780932149276</v>
       </c>
       <c r="T2">
-        <v>0.7079761824556957</v>
+        <v>0.03377780932149277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +596,55 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H3">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I3">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J3">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.14668192632003</v>
+        <v>25.73962066666667</v>
       </c>
       <c r="N3">
-        <v>1.14668192632003</v>
+        <v>77.218862</v>
       </c>
       <c r="O3">
-        <v>0.03386844418292243</v>
+        <v>0.6766011438635753</v>
       </c>
       <c r="P3">
-        <v>0.03386844418292243</v>
+        <v>0.6766011438635753</v>
       </c>
       <c r="Q3">
-        <v>55.27783472743086</v>
+        <v>1242.069187574112</v>
       </c>
       <c r="R3">
-        <v>55.27783472743086</v>
+        <v>11178.622688167</v>
       </c>
       <c r="S3">
-        <v>0.03165011693614037</v>
+        <v>0.6319993323679909</v>
       </c>
       <c r="T3">
-        <v>0.03165011693614037</v>
+        <v>0.631999332367991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H4">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I4">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J4">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.977487386445136</v>
+        <v>2.416767333333333</v>
       </c>
       <c r="N4">
-        <v>0.977487386445136</v>
+        <v>7.250302</v>
       </c>
       <c r="O4">
-        <v>0.02887110734671874</v>
+        <v>0.06352803576095653</v>
       </c>
       <c r="P4">
-        <v>0.02887110734671874</v>
+        <v>0.06352803576095653</v>
       </c>
       <c r="Q4">
-        <v>47.12151203906065</v>
+        <v>116.6214637403871</v>
       </c>
       <c r="R4">
-        <v>47.12151203906065</v>
+        <v>1049.593173663484</v>
       </c>
       <c r="S4">
-        <v>0.02698009742237477</v>
+        <v>0.05934024284722442</v>
       </c>
       <c r="T4">
-        <v>0.02698009742237477</v>
+        <v>0.05934024284722442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H5">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I5">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J5">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.08283538167295</v>
+        <v>1.172619333333333</v>
       </c>
       <c r="N5">
-        <v>6.08283538167295</v>
+        <v>3.517858</v>
       </c>
       <c r="O5">
-        <v>0.1796628741321928</v>
+        <v>0.03082390344925866</v>
       </c>
       <c r="P5">
-        <v>0.1796628741321928</v>
+        <v>0.03082390344925867</v>
       </c>
       <c r="Q5">
-        <v>293.2338612690774</v>
+        <v>56.58491869591511</v>
       </c>
       <c r="R5">
-        <v>293.2338612690774</v>
+        <v>509.264268263236</v>
       </c>
       <c r="S5">
-        <v>0.1678952521307198</v>
+        <v>0.02879197970264565</v>
       </c>
       <c r="T5">
-        <v>0.1678952521307198</v>
+        <v>0.02879197970264566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,60 +782,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.37876782839274</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H6">
-        <v>3.37876782839274</v>
+        <v>144.765442</v>
       </c>
       <c r="I6">
-        <v>0.06549835105506918</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J6">
-        <v>0.06549835105506918</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6499365966007</v>
+        <v>1.025619333333333</v>
       </c>
       <c r="N6">
-        <v>25.6499365966007</v>
+        <v>3.076858</v>
       </c>
       <c r="O6">
-        <v>0.7575975743381658</v>
+        <v>0.02695980733704406</v>
       </c>
       <c r="P6">
-        <v>0.7575975743381658</v>
+        <v>0.02695980733704405</v>
       </c>
       <c r="Q6">
-        <v>86.66518057290801</v>
+        <v>49.49141203791512</v>
       </c>
       <c r="R6">
-        <v>86.66518057290801</v>
+        <v>445.422708341236</v>
       </c>
       <c r="S6">
-        <v>0.04962139188247005</v>
+        <v>0.02518260631438873</v>
       </c>
       <c r="T6">
-        <v>0.04962139188247005</v>
+        <v>0.02518260631438873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -838,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.37876782839274</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H7">
-        <v>3.37876782839274</v>
+        <v>144.765442</v>
       </c>
       <c r="I7">
-        <v>0.06549835105506918</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J7">
-        <v>0.06549835105506918</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.14668192632003</v>
+        <v>6.312226666666667</v>
       </c>
       <c r="N7">
-        <v>1.14668192632003</v>
+        <v>18.93668</v>
       </c>
       <c r="O7">
-        <v>0.03386844418292243</v>
+        <v>0.1659255137556739</v>
       </c>
       <c r="P7">
-        <v>0.03386844418292243</v>
+        <v>0.1659255137556739</v>
       </c>
       <c r="Q7">
-        <v>3.874372002049532</v>
+        <v>304.5974278013956</v>
       </c>
       <c r="R7">
-        <v>3.874372002049532</v>
+        <v>2741.37685021256</v>
       </c>
       <c r="S7">
-        <v>0.002218327246782069</v>
+        <v>0.1549876391245741</v>
       </c>
       <c r="T7">
-        <v>0.002218327246782069</v>
+        <v>0.1549876391245741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H8">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I8">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J8">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.977487386445136</v>
+        <v>1.375678666666666</v>
       </c>
       <c r="N8">
-        <v>0.977487386445136</v>
+        <v>4.127035999999999</v>
       </c>
       <c r="O8">
-        <v>0.02887110734671874</v>
+        <v>0.03616159583349148</v>
       </c>
       <c r="P8">
-        <v>0.02887110734671874</v>
+        <v>0.03616159583349148</v>
       </c>
       <c r="Q8">
-        <v>3.302702933980527</v>
+        <v>4.684859025427556</v>
       </c>
       <c r="R8">
-        <v>3.302702933980527</v>
+        <v>42.163731228848</v>
       </c>
       <c r="S8">
-        <v>0.001891009924343971</v>
+        <v>0.002383786511998717</v>
       </c>
       <c r="T8">
-        <v>0.001891009924343971</v>
+        <v>0.002383786511998717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +968,303 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.405489333333334</v>
+      </c>
+      <c r="H9">
+        <v>10.216468</v>
+      </c>
+      <c r="I9">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="J9">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.73962066666667</v>
+      </c>
+      <c r="N9">
+        <v>77.218862</v>
+      </c>
+      <c r="O9">
+        <v>0.6766011438635753</v>
+      </c>
+      <c r="P9">
+        <v>0.6766011438635753</v>
+      </c>
+      <c r="Q9">
+        <v>87.65600362437957</v>
+      </c>
+      <c r="R9">
+        <v>788.9040326194161</v>
+      </c>
+      <c r="S9">
+        <v>0.04460181149558431</v>
+      </c>
+      <c r="T9">
+        <v>0.04460181149558431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.37876782839274</v>
-      </c>
-      <c r="H9">
-        <v>3.37876782839274</v>
-      </c>
-      <c r="I9">
-        <v>0.06549835105506918</v>
-      </c>
-      <c r="J9">
-        <v>0.06549835105506918</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.08283538167295</v>
-      </c>
-      <c r="N9">
-        <v>6.08283538167295</v>
-      </c>
-      <c r="O9">
-        <v>0.1796628741321928</v>
-      </c>
-      <c r="P9">
-        <v>0.1796628741321928</v>
-      </c>
-      <c r="Q9">
-        <v>20.55248849300564</v>
-      </c>
-      <c r="R9">
-        <v>20.55248849300564</v>
-      </c>
-      <c r="S9">
-        <v>0.01176762200147308</v>
-      </c>
-      <c r="T9">
-        <v>0.01176762200147308</v>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.405489333333334</v>
+      </c>
+      <c r="H10">
+        <v>10.216468</v>
+      </c>
+      <c r="I10">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="J10">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.416767333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.250302</v>
+      </c>
+      <c r="O10">
+        <v>0.06352803576095653</v>
+      </c>
+      <c r="P10">
+        <v>0.06352803576095653</v>
+      </c>
+      <c r="Q10">
+        <v>8.230275374815111</v>
+      </c>
+      <c r="R10">
+        <v>74.072478373336</v>
+      </c>
+      <c r="S10">
+        <v>0.004187792913732113</v>
+      </c>
+      <c r="T10">
+        <v>0.004187792913732113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.405489333333334</v>
+      </c>
+      <c r="H11">
+        <v>10.216468</v>
+      </c>
+      <c r="I11">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="J11">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.172619333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.517858</v>
+      </c>
+      <c r="O11">
+        <v>0.03082390344925866</v>
+      </c>
+      <c r="P11">
+        <v>0.03082390344925867</v>
+      </c>
+      <c r="Q11">
+        <v>3.993342631727111</v>
+      </c>
+      <c r="R11">
+        <v>35.940083685544</v>
+      </c>
+      <c r="S11">
+        <v>0.002031923746613013</v>
+      </c>
+      <c r="T11">
+        <v>0.002031923746613013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.405489333333334</v>
+      </c>
+      <c r="H12">
+        <v>10.216468</v>
+      </c>
+      <c r="I12">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="J12">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.025619333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.076858</v>
+      </c>
+      <c r="O12">
+        <v>0.02695980733704406</v>
+      </c>
+      <c r="P12">
+        <v>0.02695980733704405</v>
+      </c>
+      <c r="Q12">
+        <v>3.492735699727112</v>
+      </c>
+      <c r="R12">
+        <v>31.434621297544</v>
+      </c>
+      <c r="S12">
+        <v>0.001777201022655327</v>
+      </c>
+      <c r="T12">
+        <v>0.001777201022655327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.405489333333334</v>
+      </c>
+      <c r="H13">
+        <v>10.216468</v>
+      </c>
+      <c r="I13">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="J13">
+        <v>0.06592039032168336</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.312226666666667</v>
+      </c>
+      <c r="N13">
+        <v>18.93668</v>
+      </c>
+      <c r="O13">
+        <v>0.1659255137556739</v>
+      </c>
+      <c r="P13">
+        <v>0.1659255137556739</v>
+      </c>
+      <c r="Q13">
+        <v>21.49622058291556</v>
+      </c>
+      <c r="R13">
+        <v>193.46598524624</v>
+      </c>
+      <c r="S13">
+        <v>0.01093787463109987</v>
+      </c>
+      <c r="T13">
+        <v>0.01093787463109987</v>
       </c>
     </row>
   </sheetData>
